--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -591,7 +591,7 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="B2" s="7">
         <v>352</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
-        <v>118</v>
+        <v>1181</v>
       </c>
       <c r="B3" s="7">
         <v>353</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
-        <v>280</v>
+        <v>2801</v>
       </c>
       <c r="B12" s="7">
         <v>354</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>361</v>
+        <v>3612</v>
       </c>
       <c r="B13" s="7">
         <v>351</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
-        <v>367</v>
+        <v>3666</v>
       </c>
       <c r="B14" s="7">
         <v>355</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>381</v>
+        <v>3812</v>
       </c>
       <c r="B15" s="7">
         <v>356</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>386.8</v>
+        <v>3868</v>
       </c>
       <c r="B16" s="7">
         <v>357</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>404</v>
+        <v>4043</v>
       </c>
       <c r="B17" s="7">
         <v>358</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>421</v>
+        <v>4215</v>
       </c>
       <c r="B18" s="7">
         <v>359</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>427</v>
+        <v>4270</v>
       </c>
       <c r="B19" s="7">
         <v>360</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>469</v>
+        <v>4695</v>
       </c>
       <c r="B20" s="7">
         <v>361</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>475</v>
+        <v>4749</v>
       </c>
       <c r="B21" s="7">
         <v>362</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>499</v>
+        <v>4990</v>
       </c>
       <c r="B22" s="7">
         <v>363</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="23" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>504</v>
+        <v>5044</v>
       </c>
       <c r="B23" s="5">
         <v>364</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
-        <v>521</v>
+        <v>5213</v>
       </c>
       <c r="B24" s="5">
         <v>365</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="25" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>527</v>
+        <v>5268</v>
       </c>
       <c r="B25" s="5">
         <v>366</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="26" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>542</v>
+        <v>5420</v>
       </c>
       <c r="B26" s="5">
         <v>367</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="27" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>556</v>
+        <v>5564</v>
       </c>
       <c r="B27" s="5">
         <v>368</v>

--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Position (m)</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Acknowledgement</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>P42 (Session Management) / P46 (Conditional Level Transition) nominal / P46 reverse / P3 (National Values)</t>
   </si>
   <si>
@@ -99,6 +96,24 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>P57 (Movement Authority Parameter) / P58 (Position Report Parameters)</t>
+  </si>
+  <si>
+    <t>Parameter set</t>
+  </si>
+  <si>
+    <t>Position report</t>
+  </si>
+  <si>
+    <t>P0 (Position Report) / P5 (Train Running Number)</t>
+  </si>
+  <si>
+    <t>P15 (Level 2/3 Movement Authority) / P27 (International Static Speed Profile - Nominal) / P27 (International Static Speed Profile - Reverse) / P3 (National Values) / P5 (Linking) / P41 (Level Transition Order) / P65 (Temporary Speed Restriction)</t>
+  </si>
+  <si>
+    <t>Movement Authority / Level Transition order</t>
   </si>
 </sst>
 </file>
@@ -122,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFC10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,6 +285,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -700,180 +724,217 @@
         <v>24</v>
       </c>
       <c r="D10" s="10"/>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="C11" s="8"/>
+      <c r="D11" s="10">
+        <v>146</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10">
+        <v>136</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>2801</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="7">
         <v>354</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>3612</v>
-      </c>
-      <c r="B13" s="7">
-        <v>351</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>3666</v>
-      </c>
-      <c r="B14" s="7">
-        <v>355</v>
-      </c>
-      <c r="C14" s="8"/>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
+      <c r="E14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>3812</v>
+        <v>3612</v>
       </c>
       <c r="B15" s="7">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>3868</v>
+        <v>3666</v>
       </c>
       <c r="B16" s="7">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>4043</v>
+        <v>3812</v>
       </c>
       <c r="B17" s="7">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
+      <c r="E17" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>4215</v>
+        <v>3868</v>
       </c>
       <c r="B18" s="7">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>4270</v>
+        <v>4043</v>
       </c>
       <c r="B19" s="7">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>4695</v>
+        <v>4215</v>
       </c>
       <c r="B20" s="7">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>4749</v>
+        <v>4270</v>
       </c>
       <c r="B21" s="7">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>4990</v>
+        <v>4695</v>
       </c>
       <c r="B22" s="7">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
-        <v>5044</v>
-      </c>
-      <c r="B23" s="5">
-        <v>364</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
-        <v>5213</v>
-      </c>
-      <c r="B24" s="5">
-        <v>365</v>
-      </c>
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>4749</v>
+      </c>
+      <c r="B23" s="7">
+        <v>362</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>4990</v>
+      </c>
+      <c r="B24" s="7">
+        <v>363</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>5268</v>
+        <v>5044</v>
       </c>
       <c r="B25" s="5">
-        <v>366</v>
+        <v>364</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>5420</v>
+        <v>5213</v>
       </c>
       <c r="B26" s="5">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
+        <v>5268</v>
+      </c>
+      <c r="B27" s="5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>5420</v>
+      </c>
+      <c r="B28" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>5564</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B29" s="5">
         <v>368</v>
       </c>
     </row>

--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Position (m)</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Acknowledgement</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>P42 (Session Management) / P46 (Conditional Level Transition) nominal / P46 reverse / P3 (National Values)</t>
   </si>
   <si>
@@ -96,24 +99,6 @@
   </si>
   <si>
     <t>--</t>
-  </si>
-  <si>
-    <t>P57 (Movement Authority Parameter) / P58 (Position Report Parameters)</t>
-  </si>
-  <si>
-    <t>Parameter set</t>
-  </si>
-  <si>
-    <t>Position report</t>
-  </si>
-  <si>
-    <t>P0 (Position Report) / P5 (Train Running Number)</t>
-  </si>
-  <si>
-    <t>P15 (Level 2/3 Movement Authority) / P27 (International Static Speed Profile - Nominal) / P27 (International Static Speed Profile - Reverse) / P3 (National Values) / P5 (Linking) / P41 (Level Transition Order) / P65 (Temporary Speed Restriction)</t>
-  </si>
-  <si>
-    <t>Movement Authority / Level Transition order</t>
   </si>
 </sst>
 </file>
@@ -137,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,12 +144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFC10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -285,9 +264,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -724,217 +700,180 @@
         <v>24</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10">
-        <v>146</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>2801</v>
+      </c>
+      <c r="B12" s="7">
+        <v>354</v>
+      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="10">
-        <v>136</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
+      <c r="D12" s="10"/>
+      <c r="E12" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
-        <v>2801</v>
+        <v>3612</v>
       </c>
       <c r="B13" s="7">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>3666</v>
+      </c>
+      <c r="B14" s="7">
+        <v>355</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>29</v>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
-        <v>3612</v>
+        <v>3812</v>
       </c>
       <c r="B15" s="7">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
-        <v>3666</v>
+        <v>3868</v>
       </c>
       <c r="B16" s="7">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
-        <v>3812</v>
+        <v>4043</v>
       </c>
       <c r="B17" s="7">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="18" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
-        <v>3868</v>
+        <v>4215</v>
       </c>
       <c r="B18" s="7">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
-        <v>4043</v>
+        <v>4270</v>
       </c>
       <c r="B19" s="7">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
-        <v>4215</v>
+        <v>4695</v>
       </c>
       <c r="B20" s="7">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="10"/>
+      <c r="E20" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>4270</v>
+        <v>4749</v>
       </c>
       <c r="B21" s="7">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>4695</v>
+        <v>4990</v>
       </c>
       <c r="B22" s="7">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>4749</v>
-      </c>
-      <c r="B23" s="7">
-        <v>362</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>4990</v>
-      </c>
-      <c r="B24" s="7">
-        <v>363</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>5044</v>
+      </c>
+      <c r="B23" s="5">
+        <v>364</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>5213</v>
+      </c>
+      <c r="B24" s="5">
+        <v>365</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>5044</v>
+        <v>5268</v>
       </c>
       <c r="B25" s="5">
-        <v>364</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>23</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>5213</v>
+        <v>5420</v>
       </c>
       <c r="B26" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>5268</v>
+        <v>5564</v>
       </c>
       <c r="B27" s="5">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15">
-        <v>5420</v>
-      </c>
-      <c r="B28" s="5">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>5564</v>
-      </c>
-      <c r="B29" s="5">
         <v>368</v>
       </c>
     </row>

--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10848"/>
   </bookViews>
   <sheets>
-    <sheet name="DebugDescription" sheetId="1" r:id="rId1"/>
+    <sheet name="BTM_RTM" sheetId="1" r:id="rId1"/>
+    <sheet name="MAs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Position (m)</t>
   </si>
@@ -99,6 +100,27 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>Train position report (periodic)</t>
+  </si>
+  <si>
+    <t>Empty general message (periodic to keep connection alive)</t>
+  </si>
+  <si>
+    <t>(3072)</t>
+  </si>
+  <si>
+    <t>P57 (Movement Authority Request Parameters) / P58 (Position Report Parameters)</t>
+  </si>
+  <si>
+    <t>P15 (Level 2/3 Movement Authority) / P21 (Gradient Profile) / P27 (International Static Speed Profile) / P3 (National Values) / P5 (Linking) / P41 (Level Transition Order) / P65 (Temporary Speed Restriction)</t>
+  </si>
+  <si>
+    <t>Movement Authority</t>
+  </si>
+  <si>
+    <t>MA Request</t>
   </si>
 </sst>
 </file>
@@ -122,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +166,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFC10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,6 +299,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -693,192 +736,299 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="6" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8">
         <v>24</v>
       </c>
       <c r="D10" s="10"/>
+      <c r="E10" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="10">
+        <v>146</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19">
+        <v>136</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="18">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="F15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
         <v>2801</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B17" s="7">
         <v>354</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>3612</v>
-      </c>
-      <c r="B13" s="7">
-        <v>351</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>3666</v>
-      </c>
-      <c r="B14" s="7">
-        <v>355</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>3812</v>
-      </c>
-      <c r="B15" s="7">
-        <v>356</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>3868</v>
-      </c>
-      <c r="B16" s="7">
-        <v>357</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>4043</v>
-      </c>
-      <c r="B17" s="7">
-        <v>358</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>4215</v>
-      </c>
-      <c r="B18" s="7">
-        <v>359</v>
-      </c>
-      <c r="C18" s="8"/>
+      <c r="E17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="6" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
       <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>4270</v>
-      </c>
-      <c r="B19" s="7">
-        <v>360</v>
-      </c>
+      <c r="E18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>4695</v>
-      </c>
-      <c r="B20" s="7">
-        <v>361</v>
-      </c>
+      <c r="D19" s="10">
+        <v>146</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="6" customFormat="1" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10">
+        <v>132</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
-        <v>4749</v>
+        <v>3612</v>
       </c>
       <c r="B21" s="7">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
-        <v>4990</v>
+        <v>3666</v>
       </c>
       <c r="B22" s="7">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14">
+        <v>3812</v>
+      </c>
+      <c r="B23" s="7">
+        <v>356</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>3868</v>
+      </c>
+      <c r="B24" s="7">
+        <v>357</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>4043</v>
+      </c>
+      <c r="B25" s="7">
+        <v>358</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>4215</v>
+      </c>
+      <c r="B26" s="7">
+        <v>359</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>4270</v>
+      </c>
+      <c r="B27" s="7">
+        <v>360</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>4695</v>
+      </c>
+      <c r="B28" s="7">
+        <v>361</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>4749</v>
+      </c>
+      <c r="B29" s="7">
+        <v>362</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>4990</v>
+      </c>
+      <c r="B30" s="7">
+        <v>363</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
         <v>5044</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B31" s="5">
         <v>364</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="32" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>5213</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B32" s="5">
         <v>365</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+    <row r="33" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>5268</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B33" s="5">
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15">
+    <row r="34" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
         <v>5420</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B34" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15">
+    <row r="35" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>5564</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B35" s="5">
         <v>368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A18" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
+++ b/model/Scade/System/TracksideDynamicModel/TestTracks/UtrechtAmsterdam_oETCS/TrackDescription.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="232">
   <si>
     <t>Position (m)</t>
   </si>
@@ -121,6 +121,606 @@
   </si>
   <si>
     <t>MA Request</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Level 2/3 Movement Authority(15)</t>
+  </si>
+  <si>
+    <t>Q_DIR(2bits) = Nominal(1)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 88bits(88)</t>
+  </si>
+  <si>
+    <t>Q_SCALE(2bits) = 1m(1)</t>
+  </si>
+  <si>
+    <t>V_LOA(7bits) = 0km/h(0)</t>
+  </si>
+  <si>
+    <t>T_LOA(10bits) = Infinity(1023)</t>
+  </si>
+  <si>
+    <t>N_ITER(5bits) = 0(0)</t>
+  </si>
+  <si>
+    <t>L_ENDSECTION(15bits) = 2243.0m(2243)</t>
+  </si>
+  <si>
+    <t>Q_SECTIONTIMER(1bits) = No Section Timer information(0)</t>
+  </si>
+  <si>
+    <t>Q_ENDTIMER(1bits) = No End section timer information(0)</t>
+  </si>
+  <si>
+    <t>Q_DANGERPOINT(1bits) = Danger point information to follow(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    D_DP(15bits) = 0.0m(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    V_RELEASEDP(7bits) = Use national value(127)</t>
+  </si>
+  <si>
+    <t>Q_OVERLAP(1bits) = No overlap information(0)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Gradient Profile(21)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 246bits(246)</t>
+  </si>
+  <si>
+    <t>D_GRADIENT(15bits) = 0.0m(0)</t>
+  </si>
+  <si>
+    <t>Q_GDIR(1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t>G_A(8bits) = 3‰(3)</t>
+  </si>
+  <si>
+    <t>N_ITER(5bits) = 8(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1: D_GRADIENT[1](15bits) = 861.0m(861)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[1](1bits) = Uphill(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[1](8bits) = 6‰(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2: D_GRADIENT[2](15bits) = 150.0m(150)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[2](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[2](8bits) = 5‰(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3: D_GRADIENT[3](15bits) = 230.0m(230)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[3](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[3](8bits) = 1‰(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4: D_GRADIENT[4](15bits) = 40.0m(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[4](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[4](8bits) = 13‰(13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5: D_GRADIENT[5](15bits) = 190.0m(190)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[5](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[5](8bits) = 7‰(7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6: D_GRADIENT[6](15bits) = 160.0m(160)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[6](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[6](8bits) = 3‰(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7: D_GRADIENT[7](15bits) = 580.0m(580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[7](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[7](8bits) = 0‰(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8: D_GRADIENT[8](15bits) = 82.0m(82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_GDIR[8](1bits) = Downhill(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        G_A[8](8bits) = End of gradiend profile(255)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = International Static Speed Profile(27)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 142bits(142)</t>
+  </si>
+  <si>
+    <t>D_STATIC(15bits) = 0.0m(0)</t>
+  </si>
+  <si>
+    <t>V_STATIC(7bits) = 40km/h(8)</t>
+  </si>
+  <si>
+    <t>Q_FRONT(1bits) = No train length delay on validity end point(1)</t>
+  </si>
+  <si>
+    <t>N_ITER(5bits) = 3(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1: D_STATIC[1](15bits) = 716.0m(716)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        V_STATIC[1](7bits) = 140km/h(28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_FRONT[1](1bits) = Train length delay on validity end point(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        N_ITER[1](5bits) = 0(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2: D_STATIC[2](15bits) = 761.0m(761)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        V_STATIC[2](7bits) = 160km/h(32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_FRONT[2](1bits) = Train length delay on validity end point(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        N_ITER[2](5bits) = 0(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3: D_STATIC[3](15bits) = 816.0m(816)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        V_STATIC[3](7bits) = End of SSP(127)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_FRONT[3](1bits) = Train length delay on validity end point(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        N_ITER[3](5bits) = 0(0)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = National Values(3)</t>
+  </si>
+  <si>
+    <t>Q_DIR(2bits) = Both directions(2)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 186bits(186)</t>
+  </si>
+  <si>
+    <t>D_VALIDNV(15bits) = 0.0m(0)</t>
+  </si>
+  <si>
+    <t>N_ITER(5bits) = 1(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1: NID_C[1](10bits) = 426</t>
+  </si>
+  <si>
+    <t>V_NVSHUNT(7bits) = 40km/h(8)</t>
+  </si>
+  <si>
+    <t>V_NVSTFF(7bits) = 40km/h(8)</t>
+  </si>
+  <si>
+    <t>V_NVONSIGHT(7bits) = 40km/h(8)</t>
+  </si>
+  <si>
+    <t>V_NVUNFIT(7bits) = 10km/h(2)</t>
+  </si>
+  <si>
+    <t>V_NVREL(7bits) = 15km/h(3)</t>
+  </si>
+  <si>
+    <t>D_NVROLL(15bits) = 5.0m(5)</t>
+  </si>
+  <si>
+    <t>Q_NVSRBKTRG(1bits) = No(0)</t>
+  </si>
+  <si>
+    <t>Q_NVEMRRLS(1bits) = Release only at standstill possible(0)</t>
+  </si>
+  <si>
+    <t>V_NVALLOWOVTRP(7bits) = 0km/h(0)</t>
+  </si>
+  <si>
+    <t>V_NVSUPOVTRP(7bits) = 40km/h(8)</t>
+  </si>
+  <si>
+    <t>D_NVOVTRP(15bits) = 200.0m(200)</t>
+  </si>
+  <si>
+    <t>T_NVOVTRP(8bits) = 60s(60)</t>
+  </si>
+  <si>
+    <t>D_NVPOTRP(15bits) = 60.0m(60)</t>
+  </si>
+  <si>
+    <t>M_NVCONTACT(2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t>T_NVCONTACT(8bits) = 35s(35)</t>
+  </si>
+  <si>
+    <t>M_NVDERUN(1bits) = Yes(1)</t>
+  </si>
+  <si>
+    <t>D_NVSTFF(15bits) = Infinity(32767)</t>
+  </si>
+  <si>
+    <t>Q_NVDRIVER_ADHES(1bits) = Allowed(1)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Linking(5)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 459bits(459)</t>
+  </si>
+  <si>
+    <t>D_LINK(15bits) = 812.0m(812)</t>
+  </si>
+  <si>
+    <t>Q_NEWCOUNTRY(1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t>NID_BG(14bits) = 351(351)</t>
+  </si>
+  <si>
+    <t>Q_LINKORIENTATION(1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t>Q_LINKREACTION(2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t>Q_LOCACC(6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t>N_ITER(5bits) = 10(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1: D_LINK[1](15bits) = 54.0m(54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[1](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[1](14bits) = 355(355)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[1](1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[1](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[1](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2: D_LINK[2](15bits) = 154.0m(154)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[2](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[2](14bits) = 356(356)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[2](1bits) = The balise group is seen in reverse direction(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[2](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[2](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3: D_LINK[3](15bits) = 50.0m(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[3](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[3](14bits) = 357(357)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[3](1bits) = The balise group is seen in reverse direction(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[3](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[3](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4: D_LINK[4](15bits) = 175.0m(175)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[4](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[4](14bits) = 358(358)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[4](1bits) = The balise group is seen in reverse direction(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[4](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[4](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5: D_LINK[5](15bits) = 169.0m(169)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[5](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[5](14bits) = 359(359)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[5](1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[5](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[5](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6: D_LINK[6](15bits) = 55.0m(55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[6](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[6](14bits) = 360(360)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[6](1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[6](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[6](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    7: D_LINK[7](15bits) = 428.0m(428)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[7](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[7](14bits) = 361(361)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[7](1bits) = The balise group is seen in reverse direction(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[7](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[7](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8: D_LINK[8](15bits) = 54.0m(54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[8](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[8](14bits) = 362(362)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[8](1bits) = The balise group is seen in reverse direction(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[8](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[8](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    9: D_LINK[9](15bits) = 238.0m(238)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[9](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[9](14bits) = 363(363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[9](1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[9](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[9](6bits) = 2m(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10: D_LINK[10](15bits) = 54.0m(54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_NEWCOUNTRY[10](1bits) = Same country / railway administration(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NID_BG[10](14bits) = 364(364)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKORIENTATION[10](1bits) = The balise group is seen in nominal direction(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LINKREACTION[10](2bits) = Train trip(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Q_LOCACC[10](6bits) = 2m(2)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Level Transition Order(41)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 89bits(89)</t>
+  </si>
+  <si>
+    <t>D_LEVELTR(15bits) = 801.0m(801)</t>
+  </si>
+  <si>
+    <t>M_LEVELTR(3bits) = Level 2(3)</t>
+  </si>
+  <si>
+    <t>L_ACKLEVELTR(15bits) = 210.0m(210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1: M_LEVELTR[1](3bits) = Level STM(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            NID_STM[1](8bits) = ATB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        L_ACKLEVELTR[1](15bits) = 210.0m(210)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Temporary Speed Restriction(65)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 71bits(71)</t>
+  </si>
+  <si>
+    <t>NID_TSR(8bits) = Non-revocable speed restriction(255)</t>
+  </si>
+  <si>
+    <t>D_TSR(15bits) = 1010.0m(1010)</t>
+  </si>
+  <si>
+    <t>L_TSR(15bits) = 467.0m(467)</t>
+  </si>
+  <si>
+    <t>Q_FRONT(1bits) = Train length delay on validity end point(0)</t>
+  </si>
+  <si>
+    <t>V_TSR(7bits) = 140km/h(28)"</t>
+  </si>
+  <si>
+    <t>NID_PACKET(8bits) = Position Report(0)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 122bits(122)</t>
+  </si>
+  <si>
+    <t>Q_SCALE(2bits) = 10cm(0)</t>
+  </si>
+  <si>
+    <t>NID_C(10bits) = 426</t>
+  </si>
+  <si>
+    <t>NID_BG(14bits) = 354(354)</t>
+  </si>
+  <si>
+    <t>D_LRBG(15bits) = 422.4m(4224)</t>
+  </si>
+  <si>
+    <t>Q_DIRLRBG(2bits) = Nominal(1)</t>
+  </si>
+  <si>
+    <t>Q_DLRBG(2bits) = Nominal(1)</t>
+  </si>
+  <si>
+    <t>L_DOUBTOVER(15bits) = 17.1m(171)</t>
+  </si>
+  <si>
+    <t>L_DOUBTUNDER(15bits) = 17.1m(171)</t>
+  </si>
+  <si>
+    <t>Q_LENGTH(2bits) = No train integrity information available(0)</t>
+  </si>
+  <si>
+    <t>V_TRAIN(7bits) = 130km/h(26)</t>
+  </si>
+  <si>
+    <t>Q_DIRTRAIN(2bits) = Nominal(1)</t>
+  </si>
+  <si>
+    <t>M_MODE(4bits) = STM National(13)</t>
+  </si>
+  <si>
+    <t>M_LEVEL(3bits) = Level STM(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NID_STM(8bits) = ATB</t>
+  </si>
+  <si>
+    <t>D_LRBG(15bits) = 629.2m(6292)</t>
+  </si>
+  <si>
+    <t>L_DOUBTOVER(15bits) = 19.1m(191)</t>
+  </si>
+  <si>
+    <t>L_DOUBTUNDER(15bits) = 19.3m(193)</t>
+  </si>
+  <si>
+    <t>V_TRAIN(7bits) = 110km/h(22)</t>
+  </si>
+  <si>
+    <t>D_LRBG(15bits) = 800.8m(8008)</t>
+  </si>
+  <si>
+    <t>L_DOUBTOVER(15bits) = 20.8m(208)</t>
+  </si>
+  <si>
+    <t>L_DOUBTUNDER(15bits) = 21.0m(210)</t>
+  </si>
+  <si>
+    <t>V_TRAIN(7bits) = 90km/h(18)</t>
+  </si>
+  <si>
+    <t>L_PACKET(13bits) = 114bits(114)</t>
+  </si>
+  <si>
+    <t>D_LRBG(15bits) = 808.3m(8083)</t>
+  </si>
+  <si>
+    <t>L_DOUBTOVER(15bits) = 20.9m(209)</t>
+  </si>
+  <si>
+    <t>L_DOUBTUNDER(15bits) = 21.1m(211)</t>
+  </si>
+  <si>
+    <t>M_MODE(4bits) = Full Supervision(0)</t>
+  </si>
+  <si>
+    <t>M_LEVEL(3bits) = Level 2(3)"</t>
   </si>
 </sst>
 </file>
@@ -247,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -309,6 +909,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -597,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1023,12 +1625,1846 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B272" sqref="B272"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="76.77734375" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21">
+        <v>7078307</v>
+      </c>
+      <c r="B1" s="22">
+        <v>7078331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B143" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B158" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B159" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B160" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B163" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B165" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B168" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B170" s="22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B171" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B173" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B175" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B178" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B184" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="21">
+        <v>7078308</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="21">
+        <v>7078309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="21">
+        <v>7078310</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="21">
+        <v>7078311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="21">
+        <v>7078312</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" s="21">
+        <v>7078313</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" s="21">
+        <v>7078314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="21">
+        <v>7078315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>